--- a/output.xlsx
+++ b/output.xlsx
@@ -7,24 +7,24 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet_3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet_4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet_5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Sheet_6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Sheet_7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sheet_8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Sheet_9" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Sheet_10" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Sheet_11" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Sheet_12" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Sheet_13" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Sheet_14" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Sheet_15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Sheet_16" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Sheet_17" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Sheet_18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="SEASTATE NO 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="SEASTATE NO 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SEASTATE NO 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SEASTATE NO 4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SEASTATE NO 5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SEASTATE NO 6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SEASTATE NO 7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="SEASTATE NO 8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="SEASTATE NO 9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SEASTATE NO 10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="SEASTATE NO 11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SEASTATE NO 12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="SEASTATE NO 13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="SEASTATE NO 14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="SEASTATE NO 15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="SEASTATE NO 16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="SEASTATE NO 17" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="SEASTATE NO 18" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
